--- a/use_case_step.xlsx
+++ b/use_case_step.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>open_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,66 @@
   </si>
   <si>
     <t>close_now_window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至iframe标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_iframe@@id@@test@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至主文档(当在iframe标签中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_main_dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_main_dom@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至父文档(多个iframe嵌套的情况下)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_parent_dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_parent_dom@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -819,6 +879,76 @@
       </c>
       <c r="D17" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/use_case_step.xlsx
+++ b/use_case_step.xlsx
@@ -126,163 +126,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>close_browser@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept_alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss_alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public_use_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public_use_case@@test@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_element_input_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_element_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_identifying_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_identifying_code@@id@@iyzm@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifying_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifying_code@@id@@yzm@@222,300@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别验证码(字母数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭当前窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_now_window@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_window@@2@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_now_window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至iframe标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_iframe@@id@@test@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至主文档(当在iframe标签中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_main_dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_main_dom@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至父文档(多个iframe嵌套的情况下)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_parent_dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_parent_dom@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward@@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>close_browser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close_browser@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enlarge_window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept_alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss_alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public_use_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public_use_case@@test@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_element_input_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_element_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_identifying_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_identifying_code@@id@@iyzm@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifying_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifying_code@@id@@yzm@@222,300@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别验证码(字母数字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭当前窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_now_window@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_window@@2@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_now_window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_iframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至iframe标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_iframe@@id@@test@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至主文档(当在iframe标签中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_main_dom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_main_dom@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至父文档(多个iframe嵌套的情况下)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_parent_dom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_parent_dom@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward@@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -682,12 +682,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -799,156 +799,156 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
